--- a/CGEvents/wwwroot/Upload/MailingList testFullname.xlsx
+++ b/CGEvents/wwwroot/Upload/MailingList testFullname.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -65,27 +65,18 @@
     <t>zaakesh.mulla@wunderman-me.com</t>
   </si>
   <si>
-    <t>salromaithy@aldar.com</t>
-  </si>
-  <si>
     <t>Yas Mall - Aldar</t>
   </si>
   <si>
     <t>Abu Dhabi</t>
   </si>
   <si>
-    <t>samin@aldar.com</t>
-  </si>
-  <si>
     <t>allaa.marzouk@zenithmedia.com</t>
   </si>
   <si>
     <t>Zenith</t>
   </si>
   <si>
-    <t>sara.hughes@wunderman-me.com</t>
-  </si>
-  <si>
     <t>s.hughes</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>Shatha$ Rumaithy</t>
   </si>
   <si>
-    <t>A. llaa Marzouk</t>
-  </si>
-  <si>
     <t>&lt;Vivek&lt; Chonkar</t>
   </si>
   <si>
@@ -105,6 +93,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sara.hughes@wunderman-me.com_</t>
+  </si>
+  <si>
+    <t>salromaithy@aldar.com.</t>
+  </si>
+  <si>
+    <t>samin@aldar.com@</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -494,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -514,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -531,16 +528,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -551,16 +548,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -570,14 +567,11 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -591,6 +585,8 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
